--- a/MEDIA/3005_拉亞直營營業額(2020-10-11~2020-10-17).xlsx
+++ b/MEDIA/3005_拉亞直營營業額(2020-10-11~2020-10-17).xlsx
@@ -510,80 +510,80 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>32785</v>
+        <v>27670</v>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F3" t="n">
-        <v>11830</v>
+        <v>14604</v>
       </c>
       <c r="G3" t="n">
-        <v>36.1</v>
+        <v>52.8</v>
       </c>
       <c r="H3" t="n">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="I3" t="n">
-        <v>6845</v>
+        <v>7555</v>
       </c>
       <c r="J3" t="n">
-        <v>20.9</v>
+        <v>27.3</v>
       </c>
       <c r="K3" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>3505</v>
+        <v>1880</v>
       </c>
       <c r="M3" t="n">
-        <v>10.7</v>
+        <v>6.8</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>4325</v>
+        <v>116</v>
       </c>
       <c r="P3" t="n">
-        <v>13.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R3" t="n">
-        <v>825</v>
+        <v>1280</v>
       </c>
       <c r="S3" t="n">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="T3" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="U3" t="n">
-        <v>3655</v>
+        <v>2235</v>
       </c>
       <c r="V3" t="n">
-        <v>11.1</v>
+        <v>8.1</v>
       </c>
       <c r="W3" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1800</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="AA3" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4">
@@ -599,80 +599,80 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>26634</v>
+        <v>17635</v>
       </c>
       <c r="E4" t="n">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="F4" t="n">
-        <v>10304.4</v>
+        <v>7700</v>
       </c>
       <c r="G4" t="n">
-        <v>38.7</v>
+        <v>43.7</v>
       </c>
       <c r="H4" t="n">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="I4" t="n">
-        <v>5723</v>
+        <v>6915</v>
       </c>
       <c r="J4" t="n">
-        <v>21.5</v>
+        <v>39.2</v>
       </c>
       <c r="K4" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>2265</v>
+        <v>1025</v>
       </c>
       <c r="M4" t="n">
-        <v>8.5</v>
+        <v>5.8</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1340</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>4</v>
       </c>
       <c r="R4" t="n">
-        <v>830</v>
+        <v>610</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="T4" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="U4" t="n">
-        <v>3655</v>
+        <v>1385</v>
       </c>
       <c r="V4" t="n">
-        <v>13.7</v>
+        <v>7.9</v>
       </c>
       <c r="W4" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>2517</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>239</v>
+        <v>188</v>
       </c>
       <c r="AA4" t="n">
-        <v>111</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
@@ -688,38 +688,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>25477</v>
+        <v>16719</v>
       </c>
       <c r="E5" t="n">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F5" t="n">
-        <v>8846</v>
+        <v>7957</v>
       </c>
       <c r="G5" t="n">
-        <v>34.7</v>
+        <v>47.6</v>
       </c>
       <c r="H5" t="n">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I5" t="n">
-        <v>6321</v>
+        <v>5187</v>
       </c>
       <c r="J5" t="n">
-        <v>24.8</v>
+        <v>31</v>
       </c>
       <c r="K5" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="L5" t="n">
-        <v>2680</v>
+        <v>1130</v>
       </c>
       <c r="M5" t="n">
-        <v>10.5</v>
+        <v>6.8</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -731,37 +731,37 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>750</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="T5" t="n">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="U5" t="n">
-        <v>5325</v>
+        <v>1695</v>
       </c>
       <c r="V5" t="n">
-        <v>20.9</v>
+        <v>10.1</v>
       </c>
       <c r="W5" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>2305</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="AA5" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
@@ -777,38 +777,38 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>27070</v>
+        <v>18296</v>
       </c>
       <c r="E6" t="n">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="F6" t="n">
-        <v>10633</v>
+        <v>7242</v>
       </c>
       <c r="G6" t="n">
-        <v>39.3</v>
+        <v>39.6</v>
       </c>
       <c r="H6" t="n">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="I6" t="n">
-        <v>7942</v>
+        <v>7539</v>
       </c>
       <c r="J6" t="n">
-        <v>29.3</v>
+        <v>41.2</v>
       </c>
       <c r="K6" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="L6" t="n">
-        <v>1905</v>
+        <v>985</v>
       </c>
       <c r="M6" t="n">
-        <v>7</v>
+        <v>5.4</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -820,37 +820,37 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>95</v>
+        <v>685</v>
       </c>
       <c r="S6" t="n">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="T6" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="U6" t="n">
-        <v>3950</v>
+        <v>1845</v>
       </c>
       <c r="V6" t="n">
-        <v>14.6</v>
+        <v>10.1</v>
       </c>
       <c r="W6" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>2545</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="AA6" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
@@ -866,80 +866,80 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>24606</v>
+        <v>14926</v>
       </c>
       <c r="E7" t="n">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="F7" t="n">
-        <v>9657</v>
+        <v>6221</v>
       </c>
       <c r="G7" t="n">
-        <v>39.2</v>
+        <v>41.7</v>
       </c>
       <c r="H7" t="n">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I7" t="n">
-        <v>6268</v>
+        <v>5435</v>
       </c>
       <c r="J7" t="n">
-        <v>25.5</v>
+        <v>36.4</v>
       </c>
       <c r="K7" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="L7" t="n">
-        <v>3595</v>
+        <v>1215</v>
       </c>
       <c r="M7" t="n">
-        <v>14.6</v>
+        <v>8.1</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="T7" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U7" t="n">
-        <v>2375</v>
+        <v>1595</v>
       </c>
       <c r="V7" t="n">
-        <v>9.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="W7" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2671</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>252</v>
+        <v>166</v>
       </c>
       <c r="AA7" t="n">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
@@ -955,80 +955,80 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>27960</v>
+        <v>23078</v>
       </c>
       <c r="E8" t="n">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="F8" t="n">
-        <v>10447</v>
+        <v>8595</v>
       </c>
       <c r="G8" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="H8" t="n">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="I8" t="n">
-        <v>7162</v>
+        <v>7693</v>
       </c>
       <c r="J8" t="n">
-        <v>25.6</v>
+        <v>33.3</v>
       </c>
       <c r="K8" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="L8" t="n">
-        <v>2444</v>
+        <v>1220</v>
       </c>
       <c r="M8" t="n">
-        <v>8.699999999999999</v>
+        <v>5.3</v>
       </c>
       <c r="N8" t="n">
         <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>1810</v>
+        <v>3680</v>
       </c>
       <c r="P8" t="n">
-        <v>6.5</v>
+        <v>15.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T8" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="U8" t="n">
-        <v>3980</v>
+        <v>1320</v>
       </c>
       <c r="V8" t="n">
-        <v>14.2</v>
+        <v>5.7</v>
       </c>
       <c r="W8" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>2117</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="AA8" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
@@ -1044,80 +1044,80 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>拉亞杭南</t>
+          <t>拉亞農安</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>31538</v>
+        <v>20936</v>
       </c>
       <c r="E9" t="n">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F9" t="n">
-        <v>13994</v>
+        <v>9817</v>
       </c>
       <c r="G9" t="n">
-        <v>44.4</v>
+        <v>46.9</v>
       </c>
       <c r="H9" t="n">
         <v>70</v>
       </c>
       <c r="I9" t="n">
-        <v>7434</v>
+        <v>6079</v>
       </c>
       <c r="J9" t="n">
-        <v>23.6</v>
+        <v>29</v>
       </c>
       <c r="K9" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L9" t="n">
-        <v>3440</v>
+        <v>1935</v>
       </c>
       <c r="M9" t="n">
-        <v>10.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1205</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="T9" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="U9" t="n">
-        <v>3920</v>
+        <v>1900</v>
       </c>
       <c r="V9" t="n">
-        <v>12.4</v>
+        <v>9.1</v>
       </c>
       <c r="W9" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1850</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.9</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>253</v>
+        <v>174</v>
       </c>
       <c r="AA9" t="n">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
@@ -1129,76 +1129,76 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>196070</v>
+        <v>139260</v>
       </c>
       <c r="E10" t="n">
-        <v>588</v>
+        <v>448</v>
       </c>
       <c r="F10" t="n">
-        <v>75711</v>
+        <v>62136</v>
       </c>
       <c r="G10" t="n">
-        <v>38.6</v>
+        <v>44.6</v>
       </c>
       <c r="H10" t="n">
-        <v>466</v>
+        <v>614</v>
       </c>
       <c r="I10" t="n">
-        <v>47695</v>
+        <v>46403</v>
       </c>
       <c r="J10" t="n">
-        <v>24.3</v>
+        <v>33.3</v>
       </c>
       <c r="K10" t="n">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="L10" t="n">
-        <v>19834</v>
+        <v>9390</v>
       </c>
       <c r="M10" t="n">
-        <v>10.1</v>
+        <v>6.7</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>8415</v>
+        <v>3796</v>
       </c>
       <c r="P10" t="n">
-        <v>4.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q10" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="R10" t="n">
-        <v>1750</v>
+        <v>5560</v>
       </c>
       <c r="S10" t="n">
-        <v>0.9</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="U10" t="n">
-        <v>26860</v>
+        <v>11975</v>
       </c>
       <c r="V10" t="n">
-        <v>13.7</v>
+        <v>8.6</v>
       </c>
       <c r="W10" t="n">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>15805</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>1713</v>
+        <v>1259</v>
       </c>
       <c r="AA10" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
